--- a/data/new_patient_investigation.xlsx
+++ b/data/new_patient_investigation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sf138614/Desktop/resku2-master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E700EFC6-E296-3F4A-9B79-E59C8AA93838}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4703603C-94A8-C342-93FF-31077CCEBD04}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10760" yWindow="3300" windowWidth="27640" windowHeight="16940" xr2:uid="{2245107F-7702-0540-AD6D-5239AE8E913C}"/>
+    <workbookView xWindow="5460" yWindow="2620" windowWidth="27640" windowHeight="16940" xr2:uid="{2245107F-7702-0540-AD6D-5239AE8E913C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G1146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1065" workbookViewId="0">
-      <selection activeCell="G1080" sqref="G1080"/>
+      <selection activeCell="G1075" sqref="G1075"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
